--- a/production/data/poets.xlsx
+++ b/production/data/poets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="25620" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="274">
   <si>
     <t>poet_name</t>
   </si>
@@ -841,6 +841,9 @@
   </si>
   <si>
     <t>In some authors wrongly Thales, according to NP</t>
+  </si>
+  <si>
+    <t>Gerber, Greek Elegaic Poetry (LCL 258); Aspiotes 294</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1211,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1218,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E128" sqref="E128"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1552,6 +1555,9 @@
       </c>
       <c r="B22" s="1">
         <v>99</v>
+      </c>
+      <c r="C22" t="s">
+        <v>273</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>

--- a/production/data/poets.xlsx
+++ b/production/data/poets.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="275">
   <si>
     <t>poet_name</t>
   </si>
@@ -594,9 +594,6 @@
     <t>Ibycus</t>
   </si>
   <si>
-    <t>Ion</t>
-  </si>
-  <si>
     <t>Lamprocles</t>
   </si>
   <si>
@@ -844,6 +841,12 @@
   </si>
   <si>
     <t>Gerber, Greek Elegaic Poetry (LCL 258); Aspiotes 294</t>
+  </si>
+  <si>
+    <t>Pindar</t>
+  </si>
+  <si>
+    <t>Race, Pindar 1-2 (LCL 56 and 485)</t>
   </si>
 </sst>
 </file>
@@ -1211,7 +1214,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1221,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1246,112 +1249,112 @@
         <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D33" si="0">CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B2,CHAR(34),"&gt;",A2,"&lt;/a&gt;")</f>
-        <v>&lt;a href="linemap.html?poetid=18"&gt;-es&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B2,CHAR(34),"&gt;",A2,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=1"&gt;Melanippides&lt;/a&gt;</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>92</v>
-      </c>
-      <c r="C3" t="s">
-        <v>219</v>
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="linemap.html?poetid=92"&gt;Alcaeus&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B3,CHAR(34),"&gt;",A3,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=2"&gt;Pronomus&lt;/a&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>93</v>
-      </c>
-      <c r="C4" t="s">
-        <v>220</v>
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="linemap.html?poetid=93"&gt;Alcman&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B4,CHAR(34),"&gt;",A4,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=3"&gt;Licymnius&lt;/a&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="linemap.html?poetid=36"&gt;Alkaios&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B5,CHAR(34),"&gt;",A5,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=4"&gt;Cinesias&lt;/a&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="linemap.html?poetid=35"&gt;Alkimakhos&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B6,CHAR(34),"&gt;",A6,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=5"&gt;Phrynis&lt;/a&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>94</v>
-      </c>
-      <c r="C7" t="s">
-        <v>221</v>
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="linemap.html?poetid=94"&gt;Anacreon&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B7,CHAR(34),"&gt;",A7,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=6"&gt;Timotheus&lt;/a&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>95</v>
-      </c>
-      <c r="C8" t="s">
-        <v>222</v>
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="linemap.html?poetid=95"&gt;Ananius&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B8,CHAR(34),"&gt;",A8,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=7"&gt;Telestes&lt;/a&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1365,1954 +1368,1954 @@
         <v>133</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B9,CHAR(34),"&gt;",A9,"&lt;/a&gt;")</f>
         <v>&lt;a href="linemap.html?poetid=8"&gt;Antigenes&lt;/a&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>96</v>
-      </c>
-      <c r="C10" t="s">
-        <v>223</v>
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="linemap.html?poetid=96"&gt;Apollodorus&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B10,CHAR(34),"&gt;",A10,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=9"&gt;Aristarkhos&lt;/a&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="linemap.html?poetid=56"&gt;Archelaos&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B11,CHAR(34),"&gt;",A11,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=10"&gt;Arkhestratos&lt;/a&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>97</v>
-      </c>
-      <c r="C12" t="s">
-        <v>222</v>
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="linemap.html?poetid=97"&gt;Archilochus&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B12,CHAR(34),"&gt;",A12,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=11"&gt;Bakkhiadas&lt;/a&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="linemap.html?poetid=37"&gt;Arignotos&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B13,CHAR(34),"&gt;",A13,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=12"&gt;Gnesippos&lt;/a&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>98</v>
-      </c>
-      <c r="C14" t="s">
-        <v>224</v>
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="linemap.html?poetid=98"&gt;Arion&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B14,CHAR(34),"&gt;",A14,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=13"&gt;Kedeides&lt;/a&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="linemap.html?poetid=39"&gt;Ariphrades&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B15,CHAR(34),"&gt;",A15,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=14"&gt;Kinesias&lt;/a&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="linemap.html?poetid=23"&gt;Ariphron&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B16,CHAR(34),"&gt;",A16,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=15"&gt;Niko-&lt;/a&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="linemap.html?poetid=9"&gt;Aristarkhos&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B17,CHAR(34),"&gt;",A17,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=16"&gt;Nikostratos&lt;/a&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>61</v>
+        <v>157</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="linemap.html?poetid=57"&gt;Aristokleides&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B18,CHAR(34),"&gt;",A18,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=17"&gt;Pantakles&lt;/a&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="linemap.html?poetid=38"&gt;Aristonous&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B19,CHAR(34),"&gt;",A19,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=18"&gt;-es&lt;/a&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="linemap.html?poetid=10"&gt;Arkhestratos&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B20,CHAR(34),"&gt;",A20,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=19"&gt;Arrabaios&lt;/a&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="42">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="linemap.html?poetid=19"&gt;Arrabaios&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B21,CHAR(34),"&gt;",A21,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=20"&gt;Krateuas&lt;/a&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="B22" s="1">
-        <v>99</v>
-      </c>
-      <c r="C22" t="s">
-        <v>273</v>
+        <v>21</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="linemap.html?poetid=99"&gt;Asius&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B22,CHAR(34),"&gt;",A22,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=21"&gt;Dionysius of Thebes&lt;/a&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>100</v>
-      </c>
-      <c r="C23" t="s">
-        <v>225</v>
+        <v>22</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="linemap.html?poetid=100"&gt;Bacchylides&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B23,CHAR(34),"&gt;",A23,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=22"&gt;Tellen&lt;/a&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="B24" s="1">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="linemap.html?poetid=11"&gt;Bakkhiadas&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B24,CHAR(34),"&gt;",A24,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=23"&gt;Ariphron&lt;/a&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1">
-        <v>101</v>
-      </c>
-      <c r="C25" t="s">
-        <v>226</v>
+        <v>24</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="linemap.html?poetid=101"&gt;Callinus&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B25,CHAR(34),"&gt;",A25,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=24"&gt;Philoxenus of Cythera&lt;/a&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="linemap.html?poetid=33"&gt;Castorion&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B26,CHAR(34),"&gt;",A26,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=25"&gt;Philoxenus of Leucas&lt;/a&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1">
-        <v>102</v>
-      </c>
-      <c r="C27" t="s">
-        <v>227</v>
+        <v>26</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="linemap.html?poetid=102"&gt;Cedeides&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B27,CHAR(34),"&gt;",A27,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=26"&gt;Polyidus&lt;/a&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="linemap.html?poetid=58"&gt;Chares&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B28,CHAR(34),"&gt;",A28,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=27"&gt;Cleomenes&lt;/a&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>178</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1">
-        <v>103</v>
-      </c>
-      <c r="C29" t="s">
-        <v>228</v>
+        <v>28</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="linemap.html?poetid=103"&gt;Charixena&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B29,CHAR(34),"&gt;",A29,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=28"&gt;Lamynthius&lt;/a&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B30" s="1">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="linemap.html?poetid=4"&gt;Cinesias&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B30,CHAR(34),"&gt;",A30,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=29"&gt;Oeniades&lt;/a&gt;</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B31" s="1">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="linemap.html?poetid=27"&gt;Cleomenes&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B31,CHAR(34),"&gt;",A31,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=33"&gt;Castorion&lt;/a&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>179</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1">
-        <v>104</v>
-      </c>
-      <c r="C32" t="s">
-        <v>229</v>
+        <v>35</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="linemap.html?poetid=104"&gt;Corinna&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B32,CHAR(34),"&gt;",A32,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=35"&gt;Alkimakhos&lt;/a&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="B33" s="1">
-        <v>105</v>
-      </c>
-      <c r="C33" t="s">
-        <v>230</v>
+        <v>36</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="linemap.html?poetid=105"&gt;Critias&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B33,CHAR(34),"&gt;",A33,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=36"&gt;Alkaios&lt;/a&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>181</v>
+        <v>31</v>
       </c>
       <c r="B34" s="1">
-        <v>106</v>
-      </c>
-      <c r="C34" t="s">
-        <v>231</v>
+        <v>37</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" ref="D34:D65" si="1">CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B34,CHAR(34),"&gt;",A34,"&lt;/a&gt;")</f>
-        <v>&lt;a href="linemap.html?poetid=106"&gt;Cydias&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B34,CHAR(34),"&gt;",A34,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=37"&gt;Arignotos&lt;/a&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>182</v>
+        <v>32</v>
       </c>
       <c r="B35" s="1">
-        <v>107</v>
-      </c>
-      <c r="C35" t="s">
-        <v>232</v>
+        <v>38</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="linemap.html?poetid=107"&gt;Demodocus&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B35,CHAR(34),"&gt;",A35,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=38"&gt;Aristonous&lt;/a&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="1">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="linemap.html?poetid=41"&gt;Dexitheus&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B36,CHAR(34),"&gt;",A36,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=39"&gt;Ariphrades&lt;/a&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B37" s="1">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="linemap.html?poetid=59"&gt;Diagoras&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B37,CHAR(34),"&gt;",A37,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=41"&gt;Dexitheus&lt;/a&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="B38" s="1">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="linemap.html?poetid=60"&gt;Dikaiogenes&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B38,CHAR(34),"&gt;",A38,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=42"&gt;Exekestides&lt;/a&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="B39" s="1">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="linemap.html?poetid=61"&gt;Dion&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B39,CHAR(34),"&gt;",A39,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=43"&gt;Euangelos&lt;/a&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>183</v>
+        <v>269</v>
       </c>
       <c r="B40" s="1">
-        <v>109</v>
-      </c>
-      <c r="C40" t="s">
-        <v>233</v>
+        <v>44</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="linemap.html?poetid=109"&gt;Dionysius Chalkus&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B40,CHAR(34),"&gt;",A40,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=44"&gt;Eumelos #2&lt;/a&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="B41" s="1">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="linemap.html?poetid=62"&gt;Dionysius of Chios&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B41,CHAR(34),"&gt;",A41,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=45"&gt;Thespis&lt;/a&gt;</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="B42" s="1">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="linemap.html?poetid=21"&gt;Dionysius of Thebes&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B42,CHAR(34),"&gt;",A42,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=46"&gt;Konnos&lt;/a&gt;</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="B43" s="1">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="linemap.html?poetid=63"&gt;Diphilos&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B43,CHAR(34),"&gt;",A43,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=47"&gt;Kydides&lt;/a&gt;</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="B44" s="1">
-        <v>111</v>
-      </c>
-      <c r="C44" t="s">
-        <v>234</v>
+        <v>48</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="linemap.html?poetid=111"&gt;Echembrotus&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B44,CHAR(34),"&gt;",A44,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=48"&gt;Meles&lt;/a&gt;</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="B45" s="1">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="linemap.html?poetid=64"&gt;Epameinondas&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B45,CHAR(34),"&gt;",A45,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=49"&gt;Moskhos&lt;/a&gt;</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B46" s="1">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="linemap.html?poetid=43"&gt;Euangelos&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B46,CHAR(34),"&gt;",A46,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=51"&gt;Khairis&lt;/a&gt;</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="B47" s="1">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="linemap.html?poetid=65"&gt;Euenos&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B47,CHAR(34),"&gt;",A47,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=52"&gt;Magnes&lt;/a&gt;</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>270</v>
+        <v>55</v>
       </c>
       <c r="B48" s="1">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>142</v>
+        <v>54</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="linemap.html?poetid=44"&gt;Eumelos #2&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B48,CHAR(34),"&gt;",A48,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=53"&gt;Meletos&lt;/a&gt;</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>269</v>
+        <v>56</v>
       </c>
       <c r="B49" s="1">
-        <v>112</v>
-      </c>
-      <c r="C49" t="s">
-        <v>235</v>
+        <v>54</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="linemap.html?poetid=112"&gt;Eumelos #1&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B49,CHAR(34),"&gt;",A49,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=54"&gt;Telesilla&lt;/a&gt;</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="B50" s="1">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>78</v>
+        <v>240</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="linemap.html?poetid=66"&gt;Euneidai&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B50,CHAR(34),"&gt;",A50,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=55"&gt;Ion of Chios&lt;/a&gt;</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>185</v>
+        <v>58</v>
       </c>
       <c r="B51" s="1">
-        <v>113</v>
-      </c>
-      <c r="C51" t="s">
-        <v>236</v>
+        <v>56</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="linemap.html?poetid=113"&gt;Eunicus&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B51,CHAR(34),"&gt;",A51,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=56"&gt;Archelaos&lt;/a&gt;</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>186</v>
+        <v>60</v>
       </c>
       <c r="B52" s="1">
-        <v>114</v>
-      </c>
-      <c r="C52" t="s">
-        <v>237</v>
+        <v>57</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="linemap.html?poetid=114"&gt;Euripides&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B52,CHAR(34),"&gt;",A52,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=57"&gt;Aristokleides&lt;/a&gt;</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B53" s="1">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="linemap.html?poetid=67"&gt;Euripides the Younger&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B53,CHAR(34),"&gt;",A53,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=58"&gt;Chares&lt;/a&gt;</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="B54" s="1">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="D54" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="linemap.html?poetid=42"&gt;Exekestides&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B54,CHAR(34),"&gt;",A54,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=59"&gt;Diagoras&lt;/a&gt;</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B55" s="1">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D55" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="linemap.html?poetid=68"&gt;Exekestos&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B55,CHAR(34),"&gt;",A55,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=60"&gt;Dikaiogenes&lt;/a&gt;</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="B56" s="1">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="D56" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="linemap.html?poetid=12"&gt;Gnesippos&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B56,CHAR(34),"&gt;",A56,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=61"&gt;Dion&lt;/a&gt;</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="28">
       <c r="A57" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="B57" s="1">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="linemap.html?poetid=69"&gt;Hegemon&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B57,CHAR(34),"&gt;",A57,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=62"&gt;Dionysius of Chios&lt;/a&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>187</v>
+        <v>71</v>
       </c>
       <c r="B58" s="1">
-        <v>115</v>
-      </c>
-      <c r="C58" t="s">
-        <v>238</v>
+        <v>63</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="linemap.html?poetid=115"&gt;Hermippus&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B58,CHAR(34),"&gt;",A58,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=63"&gt;Diphilos&lt;/a&gt;</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B59" s="1">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="linemap.html?poetid=70"&gt;Hieronymos&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B59,CHAR(34),"&gt;",A59,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=64"&gt;Epameinondas&lt;/a&gt;</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B60" s="1">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D60" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="linemap.html?poetid=71"&gt;Hippias&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B60,CHAR(34),"&gt;",A60,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=65"&gt;Euenos&lt;/a&gt;</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="B61" s="1">
-        <v>116</v>
-      </c>
-      <c r="C61" t="s">
-        <v>239</v>
+        <v>66</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="D61" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="linemap.html?poetid=116"&gt;Hipponax&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B61,CHAR(34),"&gt;",A61,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=66"&gt;Euneidai&lt;/a&gt;</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="B62" s="1">
-        <v>117</v>
-      </c>
-      <c r="C62" t="s">
-        <v>240</v>
+        <v>67</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="D62" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="linemap.html?poetid=117"&gt;Ibycus&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B62,CHAR(34),"&gt;",A62,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=67"&gt;Euripides the Younger&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="28">
       <c r="A63" t="s">
-        <v>190</v>
+        <v>81</v>
       </c>
       <c r="B63" s="1">
-        <v>118</v>
-      </c>
-      <c r="C63" t="s">
-        <v>241</v>
+        <v>68</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="linemap.html?poetid=118"&gt;Ion&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B63,CHAR(34),"&gt;",A63,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=68"&gt;Exekestos&lt;/a&gt;</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="B64" s="1">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="D64" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="linemap.html?poetid=55"&gt;Ion of Chios&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B64,CHAR(34),"&gt;",A64,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=69"&gt;Hegemon&lt;/a&gt;</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="B65" s="1">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D65" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="linemap.html?poetid=72"&gt;Ion of Samos&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B65,CHAR(34),"&gt;",A65,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=70"&gt;Hieronymos&lt;/a&gt;</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B66" s="1">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D66" t="str">
-        <f t="shared" ref="D66:D97" si="2">CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B66,CHAR(34),"&gt;",A66,"&lt;/a&gt;")</f>
-        <v>&lt;a href="linemap.html?poetid=73"&gt;Iophon&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B66,CHAR(34),"&gt;",A66,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=71"&gt;Hippias&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="28">
       <c r="A67" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="B67" s="1">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="linemap.html?poetid=74"&gt;Karkinos&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B67,CHAR(34),"&gt;",A67,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=72"&gt;Ion of Samos&lt;/a&gt;</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="28">
       <c r="A68" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="B68" s="1">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="D68" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="linemap.html?poetid=13"&gt;Kedeides&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B68,CHAR(34),"&gt;",A68,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=73"&gt;Iophon&lt;/a&gt;</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="28">
       <c r="A69" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="B69" s="1">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="D69" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="linemap.html?poetid=51"&gt;Khairis&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="28">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B69,CHAR(34),"&gt;",A69,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=74"&gt;Karkinos&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="B70" s="1">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="D70" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="linemap.html?poetid=14"&gt;Kinesias&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B70,CHAR(34),"&gt;",A70,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=75"&gt;Kleitagora&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="28">
       <c r="A71" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B71" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D71" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="linemap.html?poetid=75"&gt;Kleitagora&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B71,CHAR(34),"&gt;",A71,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=76"&gt;Kleomenes&lt;/a&gt;</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="28">
       <c r="A72" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B72" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D72" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="linemap.html?poetid=76"&gt;Kleomenes&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="28">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B72,CHAR(34),"&gt;",A72,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=77"&gt;Leotrophides&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="42">
       <c r="A73" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="B73" s="1">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="D73" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="linemap.html?poetid=46"&gt;Konnos&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="42">
-      <c r="A74" t="s">
-        <v>20</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B73,CHAR(34),"&gt;",A73,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=78"&gt;Oenopas&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="28">
+      <c r="A74" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="B74" s="1">
-        <v>20</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>50</v>
+        <v>79</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="D74" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="linemap.html?poetid=20"&gt;Krateuas&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="28">
-      <c r="A75" t="s">
-        <v>39</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B74,CHAR(34),"&gt;",A74,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=79"&gt;Pankrates&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="B75" s="1">
-        <v>47</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>149</v>
+        <v>81</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="D75" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="linemap.html?poetid=47"&gt;Kydides&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B75,CHAR(34),"&gt;",A75,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=81"&gt;Phrynichos&lt;/a&gt;</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" t="s">
-        <v>191</v>
+      <c r="A76" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="B76" s="1">
+        <v>82</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D76" t="str">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B76,CHAR(34),"&gt;",A76,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=82"&gt;Pindar (son of Skopelinos, cousin/nephew? of Pindar)&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="28">
+      <c r="A77" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B77" s="1">
+        <v>83</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D77" t="str">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B77,CHAR(34),"&gt;",A77,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=83"&gt;Praxilla&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B78" s="1">
+        <v>84</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D78" t="str">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B78,CHAR(34),"&gt;",A78,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=84"&gt;Skythinos&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B79" s="1">
+        <v>85</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C76" t="s">
-        <v>242</v>
-      </c>
-      <c r="D76" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="linemap.html?poetid=119"&gt;Lamprocles&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
-        <v>192</v>
-      </c>
-      <c r="B77" s="1">
+      <c r="D79" t="str">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B79,CHAR(34),"&gt;",A79,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=85"&gt;Sophokles (son of Ariston)&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="28">
+      <c r="A80" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B80" s="1">
+        <v>86</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C77" t="s">
-        <v>243</v>
-      </c>
-      <c r="D77" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="linemap.html?poetid=120"&gt;Lamprus&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="28">
-      <c r="A78" t="s">
-        <v>26</v>
-      </c>
-      <c r="B78" s="1">
-        <v>28</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D78" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="linemap.html?poetid=28"&gt;Lamynthius&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" t="s">
-        <v>193</v>
-      </c>
-      <c r="B79" s="1">
+      <c r="D80" t="str">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B80,CHAR(34),"&gt;",A80,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=86"&gt;Stesandros&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B81" s="1">
+        <v>87</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C79" t="s">
-        <v>244</v>
-      </c>
-      <c r="D79" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="linemap.html?poetid=121"&gt;Lasus&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" t="s">
-        <v>98</v>
-      </c>
-      <c r="B80" s="1">
-        <v>77</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D80" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="linemap.html?poetid=77"&gt;Leotrophides&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="28">
-      <c r="A81" t="s">
-        <v>3</v>
-      </c>
-      <c r="B81" s="1">
-        <v>3</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="D81" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="linemap.html?poetid=3"&gt;Licymnius&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" t="s">
-        <v>52</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B81,CHAR(34),"&gt;",A81,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=87"&gt;Theano&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="28">
+      <c r="A82" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="B82" s="1">
-        <v>52</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>53</v>
+        <v>88</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="D82" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="linemap.html?poetid=52"&gt;Magnes&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="28">
-      <c r="A83" t="s">
-        <v>1</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B82,CHAR(34),"&gt;",A82,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=88"&gt;Timonides&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="B83" s="1">
-        <v>1</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>152</v>
+        <v>89</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="D83" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="linemap.html?poetid=1"&gt;Melanippides&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="4" t="s">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B83,CHAR(34),"&gt;",A83,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=89"&gt;Pheidippides&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="28">
+      <c r="A84" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B84" s="1">
+        <v>90</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D84" t="str">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B84,CHAR(34),"&gt;",A84,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=90"&gt;Xenokrates&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B85" s="1">
         <v>91</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C85" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D84" t="str">
-        <f t="shared" si="2"/>
+      <c r="D85" t="str">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B85,CHAR(34),"&gt;",A85,"&lt;/a&gt;")</f>
         <v>&lt;a href="linemap.html?poetid=91"&gt;Melanthius&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="28">
-      <c r="A85" t="s">
-        <v>40</v>
-      </c>
-      <c r="B85" s="1">
-        <v>48</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D85" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="linemap.html?poetid=48"&gt;Meles&lt;/a&gt;</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="B86" s="1">
-        <v>53</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>54</v>
+        <v>92</v>
+      </c>
+      <c r="C86" t="s">
+        <v>218</v>
       </c>
       <c r="D86" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="linemap.html?poetid=53"&gt;Meletos&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B86,CHAR(34),"&gt;",A86,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=92"&gt;Alcaeus&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="28">
       <c r="A87" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="B87" s="1">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C87" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="D87" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="linemap.html?poetid=122"&gt;Mimnermus&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="28">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B87,CHAR(34),"&gt;",A87,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=93"&gt;Alcman&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="B88" s="1">
-        <v>49</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>154</v>
+        <v>94</v>
+      </c>
+      <c r="C88" t="s">
+        <v>220</v>
       </c>
       <c r="D88" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="linemap.html?poetid=49"&gt;Moskhos&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B88,CHAR(34),"&gt;",A88,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=94"&gt;Anacreon&lt;/a&gt;</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="B89" s="1">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="C89" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="D89" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="linemap.html?poetid=123"&gt;Myrtis&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B89,CHAR(34),"&gt;",A89,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=95"&gt;Ananius&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="28">
       <c r="A90" t="s">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c r="B90" s="1">
-        <v>15</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>47</v>
+        <v>96</v>
+      </c>
+      <c r="C90" t="s">
+        <v>222</v>
       </c>
       <c r="D90" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="linemap.html?poetid=15"&gt;Niko-&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="28">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B90,CHAR(34),"&gt;",A90,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=96"&gt;Apollodorus&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="42">
       <c r="A91" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="B91" s="1">
-        <v>16</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>155</v>
+        <v>97</v>
+      </c>
+      <c r="C91" t="s">
+        <v>221</v>
       </c>
       <c r="D91" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="linemap.html?poetid=16"&gt;Nikostratos&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="42">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B91,CHAR(34),"&gt;",A91,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=97"&gt;Archilochus&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>27</v>
+        <v>173</v>
       </c>
       <c r="B92" s="1">
-        <v>29</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>156</v>
+        <v>98</v>
+      </c>
+      <c r="C92" t="s">
+        <v>223</v>
       </c>
       <c r="D92" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="linemap.html?poetid=29"&gt;Oeniades&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B92,CHAR(34),"&gt;",A92,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=98"&gt;Arion&lt;/a&gt;</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="B93" s="1">
-        <v>78</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
+      </c>
+      <c r="C93" t="s">
+        <v>272</v>
       </c>
       <c r="D93" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="linemap.html?poetid=78"&gt;Oenopas&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B93,CHAR(34),"&gt;",A93,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=99"&gt;Asius&lt;/a&gt;</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="B94" s="1">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="C94" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="D94" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="linemap.html?poetid=124"&gt;Olympus&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B94,CHAR(34),"&gt;",A94,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=100"&gt;Bacchylides&lt;/a&gt;</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="B95" s="1">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="C95" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="D95" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="linemap.html?poetid=125"&gt;Panarces&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="3" t="s">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B95,CHAR(34),"&gt;",A95,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=101"&gt;Callinus&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="28">
+      <c r="A96" t="s">
+        <v>177</v>
+      </c>
+      <c r="B96" s="1">
         <v>102</v>
       </c>
-      <c r="B96" s="1">
-        <v>79</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>113</v>
+      <c r="C96" t="s">
+        <v>226</v>
       </c>
       <c r="D96" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="linemap.html?poetid=79"&gt;Pankrates&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="28">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B96,CHAR(34),"&gt;",A96,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=102"&gt;Cedeides&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>17</v>
+        <v>178</v>
       </c>
       <c r="B97" s="1">
-        <v>17</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>157</v>
+        <v>103</v>
+      </c>
+      <c r="C97" t="s">
+        <v>227</v>
       </c>
       <c r="D97" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="linemap.html?poetid=17"&gt;Pantakles&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B97,CHAR(34),"&gt;",A97,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=103"&gt;Charixena&lt;/a&gt;</v>
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="3" t="s">
-        <v>103</v>
+      <c r="A98" t="s">
+        <v>179</v>
       </c>
       <c r="B98" s="1">
-        <v>89</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>114</v>
+        <v>104</v>
+      </c>
+      <c r="C98" t="s">
+        <v>228</v>
       </c>
       <c r="D98" t="str">
-        <f t="shared" ref="D98:D129" si="3">CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B98,CHAR(34),"&gt;",A98,"&lt;/a&gt;")</f>
-        <v>&lt;a href="linemap.html?poetid=89"&gt;Pheidippides&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B98,CHAR(34),"&gt;",A98,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=104"&gt;Corinna&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="28">
       <c r="A99" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="B99" s="1">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C99" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="D99" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href="linemap.html?poetid=126"&gt;Philiadas&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B99,CHAR(34),"&gt;",A99,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=105"&gt;Critias&lt;/a&gt;</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="28">
       <c r="A100" t="s">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="B100" s="1">
-        <v>24</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>158</v>
+        <v>106</v>
+      </c>
+      <c r="C100" t="s">
+        <v>230</v>
       </c>
       <c r="D100" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href="linemap.html?poetid=24"&gt;Philoxenus of Cythera&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="28">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B100,CHAR(34),"&gt;",A100,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=106"&gt;Cydias&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>23</v>
+        <v>182</v>
       </c>
       <c r="B101" s="1">
-        <v>25</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>159</v>
+        <v>107</v>
+      </c>
+      <c r="C101" t="s">
+        <v>231</v>
       </c>
       <c r="D101" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href="linemap.html?poetid=25"&gt;Philoxenus of Leucas&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B101,CHAR(34),"&gt;",A101,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=107"&gt;Demodocus&lt;/a&gt;</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="B102" s="1">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C102" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="D102" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href="linemap.html?poetid=127"&gt;Phocylides&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="3" t="s">
-        <v>104</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B102,CHAR(34),"&gt;",A102,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=109"&gt;Dionysius Chalkus&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="42">
+      <c r="A103" t="s">
+        <v>184</v>
       </c>
       <c r="B103" s="1">
-        <v>81</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
+      </c>
+      <c r="C103" t="s">
+        <v>233</v>
       </c>
       <c r="D103" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href="linemap.html?poetid=81"&gt;Phrynichos&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="42">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B103,CHAR(34),"&gt;",A103,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=111"&gt;Echembrotus&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>5</v>
+        <v>268</v>
       </c>
       <c r="B104" s="1">
-        <v>5</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>160</v>
+        <v>112</v>
+      </c>
+      <c r="C104" t="s">
+        <v>234</v>
       </c>
       <c r="D104" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href="linemap.html?poetid=5"&gt;Phrynis&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="3" t="s">
-        <v>105</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B104,CHAR(34),"&gt;",A104,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=112"&gt;Eumelos #1&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="28">
+      <c r="A105" t="s">
+        <v>185</v>
       </c>
       <c r="B105" s="1">
-        <v>82</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+      <c r="C105" t="s">
+        <v>235</v>
       </c>
       <c r="D105" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href="linemap.html?poetid=82"&gt;Pindar (son of Skopelinos, cousin/nephew? of Pindar)&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="28">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B105,CHAR(34),"&gt;",A105,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=113"&gt;Eunicus&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>24</v>
+        <v>186</v>
       </c>
       <c r="B106" s="1">
-        <v>26</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>161</v>
+        <v>114</v>
+      </c>
+      <c r="C106" t="s">
+        <v>236</v>
       </c>
       <c r="D106" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href="linemap.html?poetid=26"&gt;Polyidus&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B106,CHAR(34),"&gt;",A106,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=114"&gt;Euripides&lt;/a&gt;</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="B107" s="1">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C107" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D107" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href="linemap.html?poetid=128"&gt;Polymnestus&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B107,CHAR(34),"&gt;",A107,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=115"&gt;Hermippus&lt;/a&gt;</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="B108" s="1">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C108" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="D108" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href="linemap.html?poetid=129"&gt;Pratinas&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="3" t="s">
-        <v>106</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B108,CHAR(34),"&gt;",A108,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=116"&gt;Hipponax&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="42">
+      <c r="A109" t="s">
+        <v>189</v>
       </c>
       <c r="B109" s="1">
-        <v>83</v>
-      </c>
-      <c r="C109" s="3" t="s">
         <v>117</v>
       </c>
+      <c r="C109" t="s">
+        <v>239</v>
+      </c>
       <c r="D109" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href="linemap.html?poetid=83"&gt;Praxilla&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="42">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B109,CHAR(34),"&gt;",A109,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=117"&gt;Ibycus&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>2</v>
+        <v>190</v>
       </c>
       <c r="B110" s="1">
-        <v>2</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>162</v>
+        <v>119</v>
+      </c>
+      <c r="C110" t="s">
+        <v>241</v>
       </c>
       <c r="D110" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href="linemap.html?poetid=2"&gt;Pronomus&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B110,CHAR(34),"&gt;",A110,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=119"&gt;Lamprocles&lt;/a&gt;</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B111" s="1">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C111" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D111" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href="linemap.html?poetid=131"&gt;Sacadas&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B111,CHAR(34),"&gt;",A111,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=120"&gt;Lamprus&lt;/a&gt;</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
+        <v>192</v>
+      </c>
+      <c r="B112" s="1">
+        <v>121</v>
+      </c>
+      <c r="C112" t="s">
+        <v>243</v>
+      </c>
+      <c r="D112" t="str">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B112,CHAR(34),"&gt;",A112,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=121"&gt;Lasus&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>193</v>
+      </c>
+      <c r="B113" s="1">
+        <v>122</v>
+      </c>
+      <c r="C113" t="s">
+        <v>244</v>
+      </c>
+      <c r="D113" t="str">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B113,CHAR(34),"&gt;",A113,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=122"&gt;Mimnermus&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>194</v>
+      </c>
+      <c r="B114" s="1">
+        <v>123</v>
+      </c>
+      <c r="C114" t="s">
+        <v>245</v>
+      </c>
+      <c r="D114" t="str">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B114,CHAR(34),"&gt;",A114,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=123"&gt;Myrtis&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>195</v>
+      </c>
+      <c r="B115" s="1">
+        <v>124</v>
+      </c>
+      <c r="C115" t="s">
+        <v>246</v>
+      </c>
+      <c r="D115" t="str">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B115,CHAR(34),"&gt;",A115,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=124"&gt;Olympus&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>196</v>
+      </c>
+      <c r="B116" s="1">
+        <v>125</v>
+      </c>
+      <c r="C116" t="s">
+        <v>247</v>
+      </c>
+      <c r="D116" t="str">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B116,CHAR(34),"&gt;",A116,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=125"&gt;Panarces&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>197</v>
+      </c>
+      <c r="B117" s="1">
+        <v>126</v>
+      </c>
+      <c r="C117" t="s">
+        <v>248</v>
+      </c>
+      <c r="D117" t="str">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B117,CHAR(34),"&gt;",A117,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=126"&gt;Philiadas&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>198</v>
+      </c>
+      <c r="B118" s="1">
+        <v>127</v>
+      </c>
+      <c r="C118" t="s">
+        <v>249</v>
+      </c>
+      <c r="D118" t="str">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B118,CHAR(34),"&gt;",A118,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=127"&gt;Phocylides&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>199</v>
+      </c>
+      <c r="B119" s="1">
+        <v>128</v>
+      </c>
+      <c r="C119" t="s">
+        <v>250</v>
+      </c>
+      <c r="D119" t="str">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B119,CHAR(34),"&gt;",A119,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=128"&gt;Polymnestus&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>200</v>
+      </c>
+      <c r="B120" s="1">
+        <v>129</v>
+      </c>
+      <c r="C120" t="s">
+        <v>251</v>
+      </c>
+      <c r="D120" t="str">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B120,CHAR(34),"&gt;",A120,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=129"&gt;Pratinas&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>201</v>
+      </c>
+      <c r="B121" s="1">
+        <v>131</v>
+      </c>
+      <c r="C121" t="s">
+        <v>252</v>
+      </c>
+      <c r="D121" t="str">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B121,CHAR(34),"&gt;",A121,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=131"&gt;Sacadas&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>202</v>
+      </c>
+      <c r="B122" s="1">
+        <v>132</v>
+      </c>
+      <c r="C122" t="s">
+        <v>253</v>
+      </c>
+      <c r="D122" t="str">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B122,CHAR(34),"&gt;",A122,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=132"&gt;Sappho&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="28">
+      <c r="A123" t="s">
         <v>203</v>
       </c>
-      <c r="B112" s="1">
-        <v>132</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="B123" s="1">
+        <v>133</v>
+      </c>
+      <c r="C123" t="s">
+        <v>260</v>
+      </c>
+      <c r="D123" t="str">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B123,CHAR(34),"&gt;",A123,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=133"&gt;Scythinus&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="28">
+      <c r="A124" t="s">
+        <v>204</v>
+      </c>
+      <c r="B124" s="1">
+        <v>134</v>
+      </c>
+      <c r="C124" t="s">
+        <v>260</v>
+      </c>
+      <c r="D124" t="str">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B124,CHAR(34),"&gt;",A124,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=134"&gt;Semonides&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>205</v>
+      </c>
+      <c r="B125" s="1">
+        <v>135</v>
+      </c>
+      <c r="C125" t="s">
+        <v>261</v>
+      </c>
+      <c r="D125" t="str">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B125,CHAR(34),"&gt;",A125,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=135"&gt;Simonides&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>206</v>
+      </c>
+      <c r="B126" s="1">
+        <v>136</v>
+      </c>
+      <c r="C126" t="s">
+        <v>262</v>
+      </c>
+      <c r="D126" t="str">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B126,CHAR(34),"&gt;",A126,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=136"&gt;Solon&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>207</v>
+      </c>
+      <c r="B127" s="1">
+        <v>137</v>
+      </c>
+      <c r="C127" t="s">
+        <v>263</v>
+      </c>
+      <c r="D127" t="str">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B127,CHAR(34),"&gt;",A127,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=137"&gt;Sophocles&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>208</v>
+      </c>
+      <c r="B128" s="1">
+        <v>138</v>
+      </c>
+      <c r="C128" t="s">
         <v>254</v>
       </c>
-      <c r="D112" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href="linemap.html?poetid=132"&gt;Sappho&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" t="s">
-        <v>204</v>
-      </c>
-      <c r="B113" s="1">
-        <v>133</v>
-      </c>
-      <c r="C113" t="s">
-        <v>261</v>
-      </c>
-      <c r="D113" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href="linemap.html?poetid=133"&gt;Scythinus&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" t="s">
-        <v>205</v>
-      </c>
-      <c r="B114" s="1">
-        <v>134</v>
-      </c>
-      <c r="C114" t="s">
-        <v>261</v>
-      </c>
-      <c r="D114" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href="linemap.html?poetid=134"&gt;Semonides&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" t="s">
-        <v>206</v>
-      </c>
-      <c r="B115" s="1">
-        <v>135</v>
-      </c>
-      <c r="C115" t="s">
-        <v>262</v>
-      </c>
-      <c r="D115" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href="linemap.html?poetid=135"&gt;Simonides&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B116" s="1">
-        <v>84</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D116" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href="linemap.html?poetid=84"&gt;Skythinos&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" t="s">
-        <v>207</v>
-      </c>
-      <c r="B117" s="1">
-        <v>136</v>
-      </c>
-      <c r="C117" t="s">
-        <v>263</v>
-      </c>
-      <c r="D117" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href="linemap.html?poetid=136"&gt;Solon&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" t="s">
-        <v>208</v>
-      </c>
-      <c r="B118" s="1">
-        <v>137</v>
-      </c>
-      <c r="C118" t="s">
-        <v>264</v>
-      </c>
-      <c r="D118" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href="linemap.html?poetid=137"&gt;Sophocles&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B119" s="1">
-        <v>85</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D119" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href="linemap.html?poetid=85"&gt;Sophokles (son of Ariston)&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B120" s="1">
-        <v>86</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D120" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href="linemap.html?poetid=86"&gt;Stesandros&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" t="s">
+      <c r="D128" t="str">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B128,CHAR(34),"&gt;",A128,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=138"&gt;Stesichorus&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="28">
+      <c r="A129" t="s">
         <v>209</v>
       </c>
-      <c r="B121" s="1">
-        <v>138</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="B129" s="1">
+        <v>139</v>
+      </c>
+      <c r="C129" t="s">
+        <v>247</v>
+      </c>
+      <c r="D129" t="str">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B129,CHAR(34),"&gt;",A129,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=139"&gt;Susarion&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>210</v>
+      </c>
+      <c r="B130" s="1">
+        <v>141</v>
+      </c>
+      <c r="C130" t="s">
         <v>255</v>
       </c>
-      <c r="D121" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href="linemap.html?poetid=138"&gt;Stesichorus&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" t="s">
-        <v>210</v>
-      </c>
-      <c r="B122" s="1">
-        <v>139</v>
-      </c>
-      <c r="C122" t="s">
-        <v>248</v>
-      </c>
-      <c r="D122" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href="linemap.html?poetid=139"&gt;Susarion&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" t="s">
-        <v>56</v>
-      </c>
-      <c r="B123" s="1">
-        <v>54</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D123" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href="linemap.html?poetid=54"&gt;Telesilla&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="28">
-      <c r="A124" t="s">
-        <v>7</v>
-      </c>
-      <c r="B124" s="1">
-        <v>7</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D124" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href="linemap.html?poetid=7"&gt;Telestes&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="28">
-      <c r="A125" t="s">
-        <v>21</v>
-      </c>
-      <c r="B125" s="1">
-        <v>22</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D125" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href="linemap.html?poetid=22"&gt;Tellen&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" t="s">
-        <v>211</v>
-      </c>
-      <c r="B126" s="1">
-        <v>141</v>
-      </c>
-      <c r="C126" t="s">
-        <v>256</v>
-      </c>
-      <c r="D126" t="str">
-        <f t="shared" si="3"/>
+      <c r="D130" t="str">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B130,CHAR(34),"&gt;",A130,"&lt;/a&gt;")</f>
         <v>&lt;a href="linemap.html?poetid=141"&gt;Terpander&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" t="s">
-        <v>271</v>
-      </c>
-      <c r="B127" s="1">
-        <v>142</v>
-      </c>
-      <c r="C127" t="s">
-        <v>257</v>
-      </c>
-      <c r="D127" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href="linemap.html?poetid=142"&gt;Thaletas&lt;/a&gt;</v>
-      </c>
-      <c r="E127" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B128" s="1">
-        <v>87</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D128" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href="linemap.html?poetid=87"&gt;Theano&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" t="s">
-        <v>212</v>
-      </c>
-      <c r="B129" s="1">
-        <v>143</v>
-      </c>
-      <c r="C129" t="s">
-        <v>265</v>
-      </c>
-      <c r="D129" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href="linemap.html?poetid=143"&gt;Theognis&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="28">
-      <c r="A130" t="s">
-        <v>37</v>
-      </c>
-      <c r="B130" s="1">
-        <v>45</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D130" t="str">
-        <f t="shared" ref="D130:D138" si="4">CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B130,CHAR(34),"&gt;",A130,"&lt;/a&gt;")</f>
-        <v>&lt;a href="linemap.html?poetid=45"&gt;Thespis&lt;/a&gt;</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>213</v>
+        <v>270</v>
       </c>
       <c r="B131" s="1">
+        <v>142</v>
+      </c>
+      <c r="C131" t="s">
+        <v>256</v>
+      </c>
+      <c r="D131" t="str">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B131,CHAR(34),"&gt;",A131,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=142"&gt;Thaletas&lt;/a&gt;</v>
+      </c>
+      <c r="E131" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="28">
+      <c r="A132" t="s">
+        <v>211</v>
+      </c>
+      <c r="B132" s="1">
+        <v>143</v>
+      </c>
+      <c r="C132" t="s">
+        <v>264</v>
+      </c>
+      <c r="D132" t="str">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B132,CHAR(34),"&gt;",A132,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=143"&gt;Theognis&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>212</v>
+      </c>
+      <c r="B133" s="1">
         <v>144</v>
       </c>
-      <c r="C131" t="s">
-        <v>266</v>
-      </c>
-      <c r="D131" t="str">
-        <f t="shared" si="4"/>
+      <c r="C133" t="s">
+        <v>265</v>
+      </c>
+      <c r="D133" t="str">
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B133,CHAR(34),"&gt;",A133,"&lt;/a&gt;")</f>
         <v>&lt;a href="linemap.html?poetid=144"&gt;Timocreon&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B132" s="1">
-        <v>88</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D132" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;a href="linemap.html?poetid=88"&gt;Timonides&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="28">
-      <c r="A133" t="s">
-        <v>6</v>
-      </c>
-      <c r="B133" s="1">
-        <v>6</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D133" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;a href="linemap.html?poetid=6"&gt;Timotheus&lt;/a&gt;</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>214</v>
+        <v>259</v>
       </c>
       <c r="B134" s="1">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C134" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="D134" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;a href="linemap.html?poetid=146"&gt;Tynnichus&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B134,CHAR(34),"&gt;",A134,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=145"&gt;Tyrtaeus&lt;/a&gt;</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="B135" s="1">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C135" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="D135" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;a href="linemap.html?poetid=145"&gt;Tyrtaeus&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B135,CHAR(34),"&gt;",A135,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=146"&gt;Tynnichus&lt;/a&gt;</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B136" s="1">
         <v>147</v>
       </c>
       <c r="C136" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D136" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B136,CHAR(34),"&gt;",A136,"&lt;/a&gt;")</f>
         <v>&lt;a href="linemap.html?poetid=147"&gt;Xanthus&lt;/a&gt;</v>
       </c>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="3" t="s">
-        <v>112</v>
+      <c r="A137" t="s">
+        <v>215</v>
       </c>
       <c r="B137" s="1">
-        <v>90</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>123</v>
+        <v>148</v>
+      </c>
+      <c r="C137" t="s">
+        <v>267</v>
       </c>
       <c r="D137" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;a href="linemap.html?poetid=90"&gt;Xenokrates&lt;/a&gt;</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B137,CHAR(34),"&gt;",A137,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=148"&gt;Xenophanes&lt;/a&gt;</v>
+      </c>
+      <c r="E137" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>216</v>
+        <v>273</v>
       </c>
       <c r="B138" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C138" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="D138" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;a href="linemap.html?poetid=148"&gt;Xenophanes&lt;/a&gt;</v>
-      </c>
-      <c r="E138" t="s">
-        <v>218</v>
+        <f>CONCATENATE("&lt;a href=",CHAR(34),"linemap.html?poetid=",B138,CHAR(34),"&gt;",A138,"&lt;/a&gt;")</f>
+        <v>&lt;a href="linemap.html?poetid=149"&gt;Pindar&lt;/a&gt;</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E139">
-    <sortCondition ref="A2:A139"/>
+  <sortState ref="A2:E137">
+    <sortCondition ref="B2:B137"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
